--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥/$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -91,154 +82,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>￥/$</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>42668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42670</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>676.29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>676.34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>676.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>677.19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="62181760"/>
-        <c:axId val="62183296"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="62181760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62183296"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="62183296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62181760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,7 +372,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -538,54 +381,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <f>DATE(2016,10,25)</f>
-        <v>42668</v>
-      </c>
-      <c r="B2" s="1">
-        <v>676.29</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <f>A2+1</f>
-        <v>42669</v>
-      </c>
-      <c r="B3" s="1">
-        <v>676.34</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <f>A3+1</f>
-        <v>42670</v>
-      </c>
-      <c r="B4" s="1">
-        <v>676.54</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <f t="shared" ref="A5" si="0">A4+1</f>
-        <v>42671</v>
-      </c>
-      <c r="B5" s="1">
-        <v>677.19</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,7 +16,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,36 +390,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
